--- a/2P sheets/total2P_leuctra.stenonema.EAS.11_13_24.xlsx
+++ b/2P sheets/total2P_leuctra.stenonema.EAS.11_13_24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelleysinning/Library/CloudStorage/GoogleDrive-ksinning@vt.edu/My Drive/Data/saltyC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelleysinning/Library/CloudStorage/GoogleDrive-ksinning@vt.edu/My Drive/Data/saltyC_VirginiaTech/2P sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830997BB-4D1C-1849-ADF4-93D6FF398D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9F71CE-F51E-E641-A45B-BD167C1279FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="24840" windowHeight="14220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11240" yWindow="500" windowWidth="24840" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIZE FREQ_Leuctra" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="46">
   <si>
     <t>Genus</t>
   </si>
@@ -352,13 +352,16 @@
   </si>
   <si>
     <t>Density</t>
+  </si>
+  <si>
+    <t>This is when I used just &gt; 1 and didn't have biomass area corrected or fixed to mg, and replicates weren't fixed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,12 +376,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -421,8 +418,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -805,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1284,6 +1281,11 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1294,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69015120-29FE-044F-A119-B184378142F7}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1423,7 +1425,7 @@
         <v>-2.1494080986784226E-2</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" ref="H4:H23" si="0">D5*E5</f>
+        <f t="shared" ref="H5:H23" si="0">D5*E5</f>
         <v>0.17362296499999999</v>
       </c>
       <c r="I5" s="2">
@@ -1431,7 +1433,7 @@
         <v>0.17503701381250003</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" ref="J4:J23" si="1">M$5*F5*I5</f>
+        <f t="shared" ref="J5:J23" si="1">M$5*F5*I5</f>
         <v>0.34627521861430494</v>
       </c>
       <c r="K5" s="2"/>
@@ -1469,11 +1471,11 @@
         <v>2.410983155045417E-2</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" ref="F6:F23" si="2">C7-C5</f>
+        <f t="shared" ref="F7:F23" si="2">C7-C5</f>
         <v>23</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" ref="G6:G23" si="3">(LN(E7/E5))/F7</f>
+        <f t="shared" ref="G7:G23" si="3">(LN(E7/E5))/F7</f>
         <v>6.5242502041173545E-2</v>
       </c>
       <c r="H7" s="2">
@@ -1481,7 +1483,7 @@
         <v>0.90833595722916671</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" ref="I6:I23" si="4">AVERAGE(H7,H5)</f>
+        <f t="shared" ref="I7:I23" si="4">AVERAGE(H7,H5)</f>
         <v>0.54097946111458339</v>
       </c>
       <c r="J7" s="2">

--- a/2P sheets/total2P_leuctra.stenonema.EAS.11_13_24.xlsx
+++ b/2P sheets/total2P_leuctra.stenonema.EAS.11_13_24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelleysinning/Library/CloudStorage/GoogleDrive-ksinning@vt.edu/My Drive/Data/saltyC_VirginiaTech/2P sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9F71CE-F51E-E641-A45B-BD167C1279FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DAEE28-6C32-294F-B84E-624F84C5E8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11240" yWindow="500" windowWidth="24840" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="500" windowWidth="24840" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIZE FREQ_Leuctra" sheetId="1" r:id="rId1"/>
@@ -805,7 +805,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/2P sheets/total2P_leuctra.stenonema.EAS.11_13_24.xlsx
+++ b/2P sheets/total2P_leuctra.stenonema.EAS.11_13_24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelleysinning/Library/CloudStorage/GoogleDrive-ksinning@vt.edu/My Drive/Data/saltyC_VirginiaTech/2P sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DAEE28-6C32-294F-B84E-624F84C5E8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE15907-2B00-934F-9022-C6F02C3E6C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="500" windowWidth="24840" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -805,7 +805,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -944,11 +944,11 @@
         <v>5.1140841565525758E-2</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I20" si="3">F6*H6</f>
+        <f>F6*H6</f>
         <v>1.9175521864361125</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J20" si="4">I6*9</f>
+        <f>I6*9</f>
         <v>17.257969677925011</v>
       </c>
     </row>
@@ -983,11 +983,11 @@
         <v>0.13081328990603203</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I6:I20" si="3">F8*H8</f>
         <v>-13.564779613506726</v>
       </c>
       <c r="J8">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J6:J20" si="4">I8*9</f>
         <v>-122.08301652156054</v>
       </c>
     </row>
